--- a/_testy/Dane.xlsx
+++ b/_testy/Dane.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\_testy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4377A4-5932-43C4-9845-C76DAD039117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16560"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01_WD-08" sheetId="8" r:id="rId1"/>
+    <sheet name="01_Zestawienie obiektów" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
   <si>
     <t>PL - szer</t>
   </si>
@@ -781,13 +778,19 @@
   </si>
   <si>
     <t>Przekrój ruchowy</t>
+  </si>
+  <si>
+    <t>Gliwice</t>
+  </si>
+  <si>
+    <t>3.5+3.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2142,7 +2145,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="5">
     <dxf>
       <font>
         <strike/>
@@ -2192,266 +2195,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2509,7 +2252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2561,7 +2304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2755,24 +2498,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:V108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="134" customWidth="1"/>
@@ -2794,12 +2537,12 @@
     <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="51" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="169" t="s">
         <v>94</v>
       </c>
@@ -2832,7 +2575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="169" t="s">
         <v>95</v>
       </c>
@@ -2863,7 +2606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="169" t="s">
         <v>96</v>
       </c>
@@ -2885,7 +2628,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1">
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="188" t="s">
         <v>249</v>
       </c>
@@ -2899,7 +2642,7 @@
       <c r="R5" s="135"/>
       <c r="U5" s="187"/>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1">
+    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="170" t="s">
         <v>83</v>
       </c>
@@ -2913,7 +2656,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="61"/>
       <c r="P6" s="33">
@@ -2926,7 +2669,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="170" t="s">
         <v>150</v>
       </c>
@@ -2951,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1">
+    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="171" t="s">
         <v>0</v>
       </c>
@@ -2964,8 +2707,8 @@
       <c r="E8" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="119">
-        <v>3.5</v>
+      <c r="F8" s="114" t="s">
+        <v>252</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="67"/>
@@ -2983,7 +2726,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="171" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +2756,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1">
+    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="171" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +2784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1">
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="171" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +2810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1">
+    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="171" t="s">
         <v>2</v>
       </c>
@@ -3081,7 +2824,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="119">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="67"/>
@@ -3099,7 +2842,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1">
+    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="171" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +2872,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1">
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="171" t="s">
         <v>37</v>
       </c>
@@ -3157,7 +2900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1">
+    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="171" t="s">
         <v>32</v>
       </c>
@@ -3165,7 +2908,7 @@
       <c r="D15" s="81"/>
       <c r="E15" s="182"/>
       <c r="F15" s="118" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="78"/>
@@ -3183,7 +2926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1">
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="171" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1">
+    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="171" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +2978,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1">
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="171" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1">
+    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="171" t="s">
         <v>9</v>
       </c>
@@ -3290,7 +3033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="15.75" thickBot="1">
+    <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="171" t="s">
         <v>10</v>
       </c>
@@ -3317,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="15.75" thickBot="1">
+    <row r="21" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="171" t="s">
         <v>11</v>
       </c>
@@ -3342,7 +3085,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="15.75" thickBot="1">
+    <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="171" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="15.75" thickBot="1">
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="171" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3137,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="15.75" thickBot="1">
+    <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="171" t="s">
         <v>38</v>
       </c>
@@ -3421,7 +3164,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="15.75" thickBot="1">
+    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="171" t="s">
         <v>39</v>
       </c>
@@ -3446,7 +3189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="15.75" thickBot="1">
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="171" t="s">
         <v>40</v>
       </c>
@@ -3471,7 +3214,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="15.75" thickBot="1">
+    <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="171" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="15.75" thickBot="1">
+    <row r="28" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="171" t="s">
         <v>29</v>
       </c>
@@ -3508,7 +3251,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="123">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="G28" s="61"/>
       <c r="P28" s="40">
@@ -3521,7 +3264,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="15.75" thickBot="1">
+    <row r="29" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="171" t="s">
         <v>46</v>
       </c>
@@ -3531,7 +3274,7 @@
       </c>
       <c r="E29" s="179"/>
       <c r="F29" s="124" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P29" s="42" t="s">
         <v>24</v>
@@ -3543,7 +3286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="15.75" thickBot="1">
+    <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="171" t="s">
         <v>41</v>
       </c>
@@ -3570,7 +3313,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="15.75" thickBot="1">
+    <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="171" t="s">
         <v>42</v>
       </c>
@@ -3595,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="15.75" thickBot="1">
+    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="171" t="s">
         <v>43</v>
       </c>
@@ -3620,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="15.75" thickBot="1">
+    <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="171" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3388,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="15.75" thickBot="1">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="171" t="s">
         <v>30</v>
       </c>
@@ -3670,7 +3413,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="15.75" thickBot="1">
+    <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="171" t="s">
         <v>47</v>
       </c>
@@ -3693,7 +3436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="15.75" thickBot="1">
+    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="171" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="15.75" thickBot="1">
+    <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="171" t="s">
         <v>16</v>
       </c>
@@ -3742,7 +3485,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="15.75" thickBot="1">
+    <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="171" t="s">
         <v>17</v>
       </c>
@@ -3769,7 +3512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="15.75" thickBot="1">
+    <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="171" t="s">
         <v>26</v>
       </c>
@@ -3794,7 +3537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="15.75" thickBot="1">
+    <row r="40" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="171" t="s">
         <v>27</v>
       </c>
@@ -3823,7 +3566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="15.75" thickBot="1">
+    <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="171" t="s">
         <v>18</v>
       </c>
@@ -3847,7 +3590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="15.75" thickBot="1">
+    <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="171" t="s">
         <v>19</v>
       </c>
@@ -3869,7 +3612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:21" ht="15.75" thickBot="1">
+    <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="171" t="s">
         <v>20</v>
       </c>
@@ -3894,7 +3637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15.75" thickBot="1">
+    <row r="44" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="171" t="s">
         <v>44</v>
       </c>
@@ -3916,7 +3659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="15.75" thickBot="1">
+    <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="171" t="s">
         <v>45</v>
       </c>
@@ -3946,7 +3689,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="15.75" thickBot="1">
+    <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="171" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="15.75" thickBot="1">
+    <row r="47" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="171" t="s">
         <v>22</v>
       </c>
@@ -3995,7 +3738,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="2:21" ht="15.75" thickBot="1">
+    <row r="48" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="171" t="s">
         <v>23</v>
       </c>
@@ -4019,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:21" ht="15.75" thickBot="1">
+    <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="171" t="s">
         <v>25</v>
       </c>
@@ -4044,7 +3787,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="2:21" ht="15.75" thickBot="1">
+    <row r="50" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="172" t="s">
         <v>28</v>
       </c>
@@ -4065,7 +3808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="2:21" ht="15.75" thickBot="1">
+    <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="171" t="s">
         <v>195</v>
       </c>
@@ -4092,7 +3835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:21" ht="15.75" thickBot="1">
+    <row r="52" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="171" t="s">
         <v>196</v>
       </c>
@@ -4117,7 +3860,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="2:21" ht="15.75" thickBot="1">
+    <row r="53" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="171" t="s">
         <v>197</v>
       </c>
@@ -4144,7 +3887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="15.75" thickBot="1">
+    <row r="54" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="171" t="s">
         <v>198</v>
       </c>
@@ -4169,7 +3912,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="2:21" ht="15.75" thickBot="1">
+    <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="171" t="s">
         <v>199</v>
       </c>
@@ -4194,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="15.75" thickBot="1">
+    <row r="56" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="171" t="s">
         <v>200</v>
       </c>
@@ -4221,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:21" ht="15.75" thickBot="1">
+    <row r="57" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="171" t="s">
         <v>201</v>
       </c>
@@ -4246,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="15.75" thickBot="1">
+    <row r="58" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="171" t="s">
         <v>202</v>
       </c>
@@ -4271,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:21" ht="15.75" thickBot="1">
+    <row r="59" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="171" t="s">
         <v>203</v>
       </c>
@@ -4296,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:21" ht="15.75" thickBot="1">
+    <row r="60" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="171" t="s">
         <v>204</v>
       </c>
@@ -4321,7 +4064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="61" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="172" t="s">
         <v>15</v>
       </c>
@@ -4343,7 +4086,7 @@
       <c r="S61" s="1"/>
       <c r="U61" s="22"/>
     </row>
-    <row r="62" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="62" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="171" t="s">
         <v>205</v>
       </c>
@@ -4371,7 +4114,7 @@
       <c r="S62" s="1"/>
       <c r="U62" s="22"/>
     </row>
-    <row r="63" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="63" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="171" t="s">
         <v>206</v>
       </c>
@@ -4397,7 +4140,7 @@
       <c r="S63" s="1"/>
       <c r="U63" s="22"/>
     </row>
-    <row r="64" spans="2:21" ht="15.75" thickBot="1">
+    <row r="64" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="172" t="s">
         <v>133</v>
       </c>
@@ -4413,7 +4156,7 @@
       </c>
       <c r="U64" s="22"/>
     </row>
-    <row r="65" spans="2:21" ht="15.75" thickBot="1">
+    <row r="65" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="171" t="s">
         <v>207</v>
       </c>
@@ -4435,7 +4178,7 @@
       </c>
       <c r="U65" s="22"/>
     </row>
-    <row r="66" spans="2:21" ht="15.75" thickBot="1">
+    <row r="66" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="171" t="s">
         <v>208</v>
       </c>
@@ -4456,7 +4199,7 @@
       </c>
       <c r="U66" s="22"/>
     </row>
-    <row r="67" spans="2:21" ht="15.75" thickBot="1">
+    <row r="67" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="171" t="s">
         <v>209</v>
       </c>
@@ -4478,7 +4221,7 @@
       </c>
       <c r="U67" s="22"/>
     </row>
-    <row r="68" spans="2:21" ht="15.75" thickBot="1">
+    <row r="68" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="171" t="s">
         <v>210</v>
       </c>
@@ -4498,7 +4241,7 @@
       </c>
       <c r="U68" s="22"/>
     </row>
-    <row r="69" spans="2:21" ht="15.75" thickBot="1">
+    <row r="69" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="171" t="s">
         <v>211</v>
       </c>
@@ -4518,7 +4261,7 @@
       </c>
       <c r="U69" s="22"/>
     </row>
-    <row r="70" spans="2:21" ht="15.75" thickBot="1">
+    <row r="70" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="171" t="s">
         <v>212</v>
       </c>
@@ -4538,7 +4281,7 @@
       </c>
       <c r="U70" s="22"/>
     </row>
-    <row r="71" spans="2:21" ht="15.75" thickBot="1">
+    <row r="71" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="171" t="s">
         <v>213</v>
       </c>
@@ -4560,7 +4303,7 @@
       </c>
       <c r="U71" s="22"/>
     </row>
-    <row r="72" spans="2:21" ht="15.75" thickBot="1">
+    <row r="72" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="171" t="s">
         <v>214</v>
       </c>
@@ -4580,7 +4323,7 @@
       </c>
       <c r="U72" s="22"/>
     </row>
-    <row r="73" spans="2:21" ht="15.75" thickBot="1">
+    <row r="73" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="171" t="s">
         <v>215</v>
       </c>
@@ -4600,7 +4343,7 @@
       </c>
       <c r="U73" s="22"/>
     </row>
-    <row r="74" spans="2:21" ht="15.75" thickBot="1">
+    <row r="74" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="171" t="s">
         <v>216</v>
       </c>
@@ -4620,7 +4363,7 @@
       </c>
       <c r="U74" s="22"/>
     </row>
-    <row r="75" spans="2:21" ht="15.75" thickBot="1">
+    <row r="75" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="171" t="s">
         <v>217</v>
       </c>
@@ -4640,7 +4383,7 @@
       </c>
       <c r="U75" s="22"/>
     </row>
-    <row r="76" spans="2:21" ht="15.75" thickBot="1">
+    <row r="76" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="171" t="s">
         <v>218</v>
       </c>
@@ -4660,7 +4403,7 @@
       </c>
       <c r="U76" s="22"/>
     </row>
-    <row r="77" spans="2:21" ht="15.75" thickBot="1">
+    <row r="77" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="171" t="s">
         <v>219</v>
       </c>
@@ -4680,7 +4423,7 @@
       </c>
       <c r="U77" s="22"/>
     </row>
-    <row r="78" spans="2:21" ht="15.75" thickBot="1">
+    <row r="78" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="171" t="s">
         <v>220</v>
       </c>
@@ -4702,7 +4445,7 @@
       </c>
       <c r="U78" s="22"/>
     </row>
-    <row r="79" spans="2:21" ht="15.75" thickBot="1">
+    <row r="79" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="171" t="s">
         <v>221</v>
       </c>
@@ -4722,7 +4465,7 @@
       </c>
       <c r="U79" s="22"/>
     </row>
-    <row r="80" spans="2:21" ht="15.75" thickBot="1">
+    <row r="80" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="171" t="s">
         <v>222</v>
       </c>
@@ -4742,7 +4485,7 @@
       </c>
       <c r="U80" s="22"/>
     </row>
-    <row r="81" spans="2:21" ht="15.75" thickBot="1">
+    <row r="81" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="171" t="s">
         <v>223</v>
       </c>
@@ -4762,7 +4505,7 @@
       </c>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="2:21" ht="15.75" thickBot="1">
+    <row r="82" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="171" t="s">
         <v>224</v>
       </c>
@@ -4782,7 +4525,7 @@
       </c>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="2:21" ht="15.75" thickBot="1">
+    <row r="83" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="171" t="s">
         <v>225</v>
       </c>
@@ -4805,7 +4548,7 @@
       </c>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="2:21" ht="15.75" thickBot="1">
+    <row r="84" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="171" t="s">
         <v>226</v>
       </c>
@@ -4825,7 +4568,7 @@
       </c>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="2:21" ht="15.75" thickBot="1">
+    <row r="85" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="171" t="s">
         <v>227</v>
       </c>
@@ -4847,7 +4590,7 @@
       </c>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="2:21" ht="15.75" thickBot="1">
+    <row r="86" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="172" t="s">
         <v>134</v>
       </c>
@@ -4862,7 +4605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="2:21" ht="15.75" thickBot="1">
+    <row r="87" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="171" t="s">
         <v>228</v>
       </c>
@@ -4883,7 +4626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="2:21" ht="15.75" thickBot="1">
+    <row r="88" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="171" t="s">
         <v>229</v>
       </c>
@@ -4902,7 +4645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:21" ht="15.75" thickBot="1">
+    <row r="89" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="171" t="s">
         <v>230</v>
       </c>
@@ -4923,7 +4666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:21" ht="15.75" thickBot="1">
+    <row r="90" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="171" t="s">
         <v>231</v>
       </c>
@@ -4942,7 +4685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:21" ht="15.75" thickBot="1">
+    <row r="91" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="171" t="s">
         <v>232</v>
       </c>
@@ -4961,7 +4704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="2:21" ht="15.75" thickBot="1">
+    <row r="92" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="171" t="s">
         <v>233</v>
       </c>
@@ -4980,7 +4723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="2:21" ht="15.75" thickBot="1">
+    <row r="93" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="171" t="s">
         <v>234</v>
       </c>
@@ -4999,7 +4742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="2:21" ht="15.75" thickBot="1">
+    <row r="94" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="172" t="s">
         <v>135</v>
       </c>
@@ -5013,7 +4756,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="2:21" ht="15.75" thickBot="1">
+    <row r="95" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="171" t="s">
         <v>235</v>
       </c>
@@ -5033,7 +4776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="2:21" ht="15.75" thickBot="1">
+    <row r="96" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="171" t="s">
         <v>236</v>
       </c>
@@ -5053,7 +4796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="2:18" ht="15.75" thickBot="1">
+    <row r="97" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="171" t="s">
         <v>237</v>
       </c>
@@ -5069,7 +4812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="2:18" ht="15.75" thickBot="1">
+    <row r="98" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="171" t="s">
         <v>238</v>
       </c>
@@ -5090,7 +4833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="2:18" ht="15.75" thickBot="1">
+    <row r="99" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="171" t="s">
         <v>239</v>
       </c>
@@ -5110,7 +4853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="2:18" ht="15.75" thickBot="1">
+    <row r="100" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="171" t="s">
         <v>240</v>
       </c>
@@ -5128,7 +4871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:18" ht="15.75" thickBot="1">
+    <row r="101" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="171" t="s">
         <v>241</v>
       </c>
@@ -5146,7 +4889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="2:18" ht="15.75" thickBot="1">
+    <row r="102" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="171" t="s">
         <v>242</v>
       </c>
@@ -5166,7 +4909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:18" ht="15.75" thickBot="1">
+    <row r="103" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="171" t="s">
         <v>243</v>
       </c>
@@ -5184,7 +4927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="2:18" ht="15.75" thickBot="1">
+    <row r="104" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="171" t="s">
         <v>244</v>
       </c>
@@ -5204,7 +4947,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="2:18" ht="15.75" thickBot="1">
+    <row r="105" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="171" t="s">
         <v>245</v>
       </c>
@@ -5222,7 +4965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="2:18" ht="15.75" thickBot="1">
+    <row r="106" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="171" t="s">
         <v>246</v>
       </c>
@@ -5242,7 +4985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="2:18" ht="15.75" thickBot="1">
+    <row r="107" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="171" t="s">
         <v>247</v>
       </c>
@@ -5262,7 +5005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="2:18" ht="15.75" thickBot="1">
+    <row r="108" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="171" t="s">
         <v>248</v>
       </c>
@@ -5307,43 +5050,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97 P29 F89 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F41 F48 F35:F36 F29 F46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97 P29 F89 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F41 F48 F35:F36 F29 F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"T,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"T12,T15,T18,T21,T24,T27"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 F10:I10 U10 U14 F14:I14 H2:H3 P10:Q10 P14:Q14 S14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 F10:I10 U10 U14 F14:I14 H2:H3 P10:Q10 P14:Q14 S14" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"od, do"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5 U4:U5 F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5 U4:U5 F4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"płytowo-belkowy,zespolony (belki T),skrzynkowy (kablobetonowy),płytowy,zespolony (stal-beton)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P33 P27 U33 U27 F27 F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P33 P27 U33 U27 F27 F33" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"2,2,5,3,3,5,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28 P34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28 P34" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"0,5,0,55,0,6,0,65,0,7,0,75,0,8,0,85,0,9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P37 P42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P37 P42" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"zwykła,linowa,1,1,1,2,1,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P45 P40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P45 P40" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"1,1,1,2,1,3,2,2,5,3,3,5,4,4,5,5,5,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P39 P44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P39 P44" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"B,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28 U34 F34 F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28 U34 F34 F28" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"0.50,0.55,0.60,0.65,0.70,0.75,0.80,0.85,0.90"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F42 F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F42 F37" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"bariera typowa,bariera linowa,bariera z poręczą 1.1,bariera z poręczą 1.2,bariera z poręczą 1.3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F44 F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F44 F39" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"balustrada,balustrada z osłoną przeciwporażeniową,ekran akustyczny,ekran przeciwolśnieniowy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40 U45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40 U45" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"0.75,01.sty,01.lut,01.mar,2,02.maj,3,03.maj,4,04.maj,5,05.maj,6"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_testy/Dane.xlsx
+++ b/_testy/Dane.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\_testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4377A4-5932-43C4-9845-C76DAD039117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B313593-BF3F-41EE-AB41-B84EBB739119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01_Zestawienie obiektów" sheetId="8" r:id="rId1"/>
+    <sheet name="00_Dane podstawowe" sheetId="9" r:id="rId1"/>
+    <sheet name="01_Zestawienie obiektów" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="258">
   <si>
     <t>PL - szer</t>
   </si>
@@ -345,12 +346,6 @@
     <t>Pas awaryjny lewy</t>
   </si>
   <si>
-    <t>Pasy ruchu lewe</t>
-  </si>
-  <si>
-    <t>Pasy ruchu prawe</t>
-  </si>
-  <si>
     <t>Pas awaryjny prawy</t>
   </si>
   <si>
@@ -486,9 +481,6 @@
     <t>EE</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>bariera linowa</t>
   </si>
   <si>
@@ -525,9 +517,6 @@
     <t>Zespolony (stal-beton)</t>
   </si>
   <si>
-    <t>do poprawy, bo niekonsekwentne podawanie danych</t>
-  </si>
-  <si>
     <t>Czy występuje skos</t>
   </si>
   <si>
@@ -783,7 +772,34 @@
     <t>Gliwice</t>
   </si>
   <si>
-    <t>3.5+3.5</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>Pasy ruchu</t>
+  </si>
+  <si>
+    <t>na lewo od osi niwelety</t>
+  </si>
+  <si>
+    <t>na prawo od osi niwelety</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Zabrze</t>
+  </si>
+  <si>
+    <t>WD-04</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1754,49 +1770,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,9 +1997,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2145,7 +2122,57 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -2505,29 +2532,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551F72A-C2C9-4E45-AC77-99F82A3A5C26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V108"/>
+  <dimension ref="B1:U108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="134" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="122" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="51" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="101" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="51" customWidth="1"/>
-    <col min="7" max="9" width="12.85546875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="89" customWidth="1"/>
+    <col min="6" max="7" width="40.7109375" style="51" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" style="51" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" style="51" customWidth="1"/>
     <col min="11" max="14" width="5.85546875" style="1" customWidth="1"/>
     <col min="15" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="122" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="30" width="12.85546875" style="1" customWidth="1"/>
@@ -2538,12 +2577,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="51" t="s">
-        <v>153</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="T1" s="122"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="156" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -2552,11 +2600,13 @@
       <c r="D2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="173"/>
-      <c r="F2" s="114" t="s">
+      <c r="E2" s="160"/>
+      <c r="F2" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="102" t="s">
+        <v>253</v>
+      </c>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
@@ -2566,9 +2616,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="123" t="s">
         <v>94</v>
       </c>
       <c r="U2" s="19" t="s">
@@ -2576,18 +2626,20 @@
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="156" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="115" t="s">
+      <c r="E3" s="161"/>
+      <c r="F3" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="103" t="s">
+        <v>257</v>
+      </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
@@ -2597,9 +2649,9 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="123" t="s">
         <v>95</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -2607,62 +2659,68 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="156" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="116" t="s">
-        <v>122</v>
+      <c r="E4" s="162"/>
+      <c r="F4" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>120</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="123" t="s">
         <v>96</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="188" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="189" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192"/>
-      <c r="P5" s="186"/>
-      <c r="R5" s="135"/>
-      <c r="U5" s="187"/>
+      <c r="B5" s="175" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="P5" s="173"/>
+      <c r="R5" s="123"/>
+      <c r="U5" s="174"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="157" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="117">
-        <v>10</v>
-      </c>
-      <c r="G6" s="61"/>
+        <v>144</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="105">
+        <v>0</v>
+      </c>
+      <c r="G6" s="105">
+        <v>0</v>
+      </c>
       <c r="P6" s="33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R6" s="136" t="s">
+      <c r="R6" s="124" t="s">
         <v>83</v>
       </c>
       <c r="U6" s="10">
@@ -2670,55 +2728,57 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="170" t="s">
-        <v>150</v>
+      <c r="B7" s="157" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="118">
+        <v>145</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="106">
         <v>0</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="106">
+        <v>0</v>
+      </c>
       <c r="P7" s="34">
         <v>0</v>
       </c>
-      <c r="R7" s="136" t="s">
-        <v>150</v>
+      <c r="R7" s="124" t="s">
+        <v>148</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="102" t="s">
+      <c r="C8" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="178" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="114" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
+      <c r="E8" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>255</v>
+      </c>
       <c r="J8" s="61"/>
       <c r="P8" s="35">
         <v>3.75</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="137" t="s">
+      <c r="R8" s="125" t="s">
         <v>0</v>
       </c>
       <c r="S8" s="6"/>
@@ -2727,28 +2787,30 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="103">
         <v>-2.5</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
+      <c r="G9" s="103">
+        <v>-2.5</v>
+      </c>
       <c r="J9" s="61"/>
       <c r="P9" s="36">
         <v>-4</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="137" t="s">
+      <c r="R9" s="125" t="s">
         <v>1</v>
       </c>
       <c r="S9" s="7"/>
@@ -2757,26 +2819,26 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="120" t="s">
+      <c r="E10" s="166"/>
+      <c r="F10" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
+      <c r="G10" s="108" t="s">
+        <v>48</v>
+      </c>
       <c r="J10" s="61"/>
       <c r="P10" s="36" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="R10" s="137" t="s">
+      <c r="R10" s="125" t="s">
         <v>36</v>
       </c>
       <c r="S10" s="7"/>
@@ -2785,24 +2847,24 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>247</v>
+      </c>
       <c r="J11" s="61"/>
       <c r="P11" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="137" t="s">
+      <c r="R11" s="125" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="8"/>
@@ -2811,30 +2873,30 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="158" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="119">
-        <v>3</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
+      <c r="E12" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>254</v>
+      </c>
       <c r="J12" s="61"/>
       <c r="P12" s="35">
         <v>3.75</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="137" t="s">
+      <c r="R12" s="125" t="s">
         <v>2</v>
       </c>
       <c r="S12" s="6"/>
@@ -2843,28 +2905,30 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80" t="s">
+      <c r="C13" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="103">
         <v>-2.5</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
+      <c r="G13" s="103">
+        <v>-2.5</v>
+      </c>
       <c r="J13" s="61"/>
       <c r="P13" s="36">
         <v>4</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="137" t="s">
+      <c r="R13" s="125" t="s">
         <v>3</v>
       </c>
       <c r="S13" s="7"/>
@@ -2873,26 +2937,26 @@
       </c>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="120" t="s">
+      <c r="E14" s="163"/>
+      <c r="F14" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
+      <c r="G14" s="108" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="61"/>
       <c r="P14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="137" t="s">
+      <c r="R14" s="125" t="s">
         <v>37</v>
       </c>
       <c r="S14" s="7"/>
@@ -2901,24 +2965,24 @@
       </c>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="158" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="62"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="64"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>256</v>
+      </c>
       <c r="J15" s="61"/>
       <c r="P15" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="5"/>
-      <c r="R15" s="137" t="s">
+      <c r="R15" s="125" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="8"/>
@@ -2927,26 +2991,28 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="117">
-        <v>3</v>
-      </c>
-      <c r="G16" s="61"/>
+      <c r="E16" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="G16" s="105">
+        <v>2</v>
+      </c>
       <c r="P16" s="38">
         <v>0</v>
       </c>
-      <c r="R16" s="137" t="s">
+      <c r="R16" s="125" t="s">
         <v>6</v>
       </c>
       <c r="U16" s="10">
@@ -2954,24 +3020,26 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="103" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="106">
         <v>2.5</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="106">
+        <v>2.5</v>
+      </c>
       <c r="P17" s="39">
         <v>0</v>
       </c>
-      <c r="R17" s="137" t="s">
+      <c r="R17" s="125" t="s">
         <v>7</v>
       </c>
       <c r="U17" s="8">
@@ -2979,26 +3047,28 @@
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="119">
+      <c r="E18" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="107">
         <v>0</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="107">
+        <v>0</v>
+      </c>
       <c r="P18" s="38">
         <v>3</v>
       </c>
-      <c r="R18" s="137" t="s">
+      <c r="R18" s="125" t="s">
         <v>8</v>
       </c>
       <c r="U18" s="16" t="s">
@@ -3006,24 +3076,26 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="62"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="106">
         <v>0</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="106">
+        <v>0</v>
+      </c>
       <c r="P19" s="39">
         <v>4</v>
       </c>
-      <c r="R19" s="137" t="s">
+      <c r="R19" s="125" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="1">
@@ -3034,26 +3106,28 @@
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="103" t="s">
+      <c r="C20" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="117">
+      <c r="E20" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="105">
         <v>1</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="105">
+        <v>1</v>
+      </c>
       <c r="P20" s="38">
         <v>3</v>
       </c>
-      <c r="R20" s="137" t="s">
+      <c r="R20" s="125" t="s">
         <v>10</v>
       </c>
       <c r="U20" s="10">
@@ -3061,24 +3135,26 @@
       </c>
     </row>
     <row r="21" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="103" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="121">
+      <c r="F21" s="109">
         <v>-2.5</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="109">
+        <v>-2.5</v>
+      </c>
       <c r="P21" s="39">
         <v>-4</v>
       </c>
-      <c r="R21" s="137" t="s">
+      <c r="R21" s="125" t="s">
         <v>11</v>
       </c>
       <c r="U21" s="27">
@@ -3086,26 +3162,28 @@
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="158" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="119">
+      <c r="E22" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="107">
         <v>1</v>
       </c>
-      <c r="G22" s="61"/>
+      <c r="G22" s="107">
+        <v>1</v>
+      </c>
       <c r="P22" s="38">
         <v>0</v>
       </c>
-      <c r="R22" s="137" t="s">
+      <c r="R22" s="125" t="s">
         <v>12</v>
       </c>
       <c r="U22" s="16">
@@ -3113,24 +3191,26 @@
       </c>
     </row>
     <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="158" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="62"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="110">
         <v>-2.5</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="110">
+        <v>-2.5</v>
+      </c>
       <c r="P23" s="40">
         <v>0</v>
       </c>
-      <c r="R23" s="137" t="s">
+      <c r="R23" s="125" t="s">
         <v>13</v>
       </c>
       <c r="U23" s="11">
@@ -3138,26 +3218,28 @@
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="117">
+      <c r="C24" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="105">
         <v>0.9</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="105">
+        <v>0.9</v>
+      </c>
       <c r="P24" s="38">
         <v>0</v>
       </c>
-      <c r="R24" s="137" t="s">
+      <c r="R24" s="125" t="s">
         <v>38</v>
       </c>
       <c r="U24" s="10">
@@ -3165,24 +3247,26 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="115">
+      <c r="C25" s="65"/>
+      <c r="D25" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="103">
         <v>0</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="103">
+        <v>0</v>
+      </c>
       <c r="P25" s="41">
         <v>0</v>
       </c>
-      <c r="R25" s="137" t="s">
+      <c r="R25" s="125" t="s">
         <v>39</v>
       </c>
       <c r="U25" s="5" t="s">
@@ -3190,24 +3274,26 @@
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="115">
+      <c r="C26" s="65"/>
+      <c r="D26" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="103">
         <v>0</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="103">
+        <v>0</v>
+      </c>
       <c r="P26" s="41">
         <v>0</v>
       </c>
-      <c r="R26" s="137" t="s">
+      <c r="R26" s="125" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="5" t="s">
@@ -3215,24 +3301,26 @@
       </c>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="103" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="179" t="s">
+      <c r="E27" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="103">
         <v>4</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="103">
+        <v>4</v>
+      </c>
       <c r="P27" s="41">
         <v>4</v>
       </c>
-      <c r="R27" s="137" t="s">
+      <c r="R27" s="125" t="s">
         <v>4</v>
       </c>
       <c r="U27" s="5">
@@ -3240,24 +3328,26 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="123">
+      <c r="C28" s="65"/>
+      <c r="D28" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="111">
         <v>0.65</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="111">
+        <v>0.65</v>
+      </c>
       <c r="P28" s="40">
         <v>0.6</v>
       </c>
-      <c r="R28" s="137" t="s">
+      <c r="R28" s="125" t="s">
         <v>29</v>
       </c>
       <c r="U28" s="18">
@@ -3265,21 +3355,24 @@
       </c>
     </row>
     <row r="29" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="179"/>
-      <c r="F29" s="124" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="166"/>
+      <c r="F29" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="112" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="137" t="s">
+      <c r="R29" s="125" t="s">
         <v>46</v>
       </c>
       <c r="U29" s="28" t="s">
@@ -3287,26 +3380,28 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="158" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="119">
+        <v>110</v>
+      </c>
+      <c r="E30" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="107">
         <v>1.5</v>
       </c>
-      <c r="G30" s="61"/>
+      <c r="G30" s="107">
+        <v>1.5</v>
+      </c>
       <c r="P30" s="38">
         <v>1.2</v>
       </c>
-      <c r="R30" s="137" t="s">
+      <c r="R30" s="125" t="s">
         <v>41</v>
       </c>
       <c r="U30" s="16">
@@ -3314,24 +3409,26 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="171" t="s">
+      <c r="B31" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="115">
+      <c r="C31" s="67"/>
+      <c r="D31" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="103">
         <v>2</v>
       </c>
-      <c r="G31" s="61"/>
+      <c r="G31" s="103">
+        <v>2</v>
+      </c>
       <c r="P31" s="41">
         <v>0</v>
       </c>
-      <c r="R31" s="137" t="s">
+      <c r="R31" s="125" t="s">
         <v>42</v>
       </c>
       <c r="U31" s="5">
@@ -3339,24 +3436,26 @@
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="115">
+      <c r="C32" s="67"/>
+      <c r="D32" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="103">
         <v>0</v>
       </c>
-      <c r="G32" s="61"/>
+      <c r="G32" s="103">
+        <v>0</v>
+      </c>
       <c r="P32" s="41">
         <v>0</v>
       </c>
-      <c r="R32" s="137" t="s">
+      <c r="R32" s="125" t="s">
         <v>43</v>
       </c>
       <c r="U32" s="5">
@@ -3364,24 +3463,26 @@
       </c>
     </row>
     <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80" t="s">
+      <c r="C33" s="67"/>
+      <c r="D33" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="176" t="s">
+      <c r="E33" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="115">
+      <c r="F33" s="103">
         <v>2.5</v>
       </c>
-      <c r="G33" s="61"/>
+      <c r="G33" s="103">
+        <v>2.5</v>
+      </c>
       <c r="P33" s="41">
         <v>4</v>
       </c>
-      <c r="R33" s="137" t="s">
+      <c r="R33" s="125" t="s">
         <v>5</v>
       </c>
       <c r="U33" s="5">
@@ -3389,24 +3490,26 @@
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="123">
+      <c r="C34" s="67"/>
+      <c r="D34" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="111">
         <v>0.8</v>
       </c>
-      <c r="G34" s="61"/>
+      <c r="G34" s="111">
+        <v>0.8</v>
+      </c>
       <c r="P34" s="40">
         <v>0.6</v>
       </c>
-      <c r="R34" s="137" t="s">
+      <c r="R34" s="125" t="s">
         <v>30</v>
       </c>
       <c r="U34" s="18">
@@ -3414,22 +3517,25 @@
       </c>
     </row>
     <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="158" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="62"/>
-      <c r="D35" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="182"/>
-      <c r="F35" s="116" t="s">
+      <c r="D35" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="169"/>
+      <c r="F35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="82"/>
+      <c r="G35" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="70"/>
       <c r="P35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="137" t="s">
+      <c r="R35" s="125" t="s">
         <v>47</v>
       </c>
       <c r="U35" s="17" t="s">
@@ -3437,23 +3543,26 @@
       </c>
     </row>
     <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="178"/>
-      <c r="F36" s="125" t="s">
+      <c r="C36" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="165"/>
+      <c r="F36" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="113" t="s">
         <v>15</v>
       </c>
       <c r="P36" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="R36" s="137" t="s">
+      <c r="R36" s="125" t="s">
         <v>14</v>
       </c>
       <c r="U36" s="29" t="s">
@@ -3461,51 +3570,59 @@
       </c>
     </row>
     <row r="37" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="171" t="s">
+      <c r="B37" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="179"/>
-      <c r="F37" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="146" t="s">
-        <v>194</v>
-      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="166"/>
+      <c r="F37" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="51"/>
       <c r="P37" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R37" s="137" t="s">
+      <c r="R37" s="125" t="s">
         <v>16</v>
       </c>
       <c r="U37" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="134"/>
+      <c r="D38" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="134" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="171" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="127">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="146" t="s">
-        <v>157</v>
-      </c>
+      <c r="K38" s="51"/>
       <c r="P38" s="50">
         <v>0.2</v>
       </c>
-      <c r="R38" s="137" t="s">
+      <c r="R38" s="125" t="s">
         <v>17</v>
       </c>
       <c r="U38" s="5">
@@ -3513,53 +3630,61 @@
       </c>
     </row>
     <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="179"/>
-      <c r="F39" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>158</v>
-      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="166"/>
+      <c r="F39" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="51"/>
       <c r="P39" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R39" s="137" t="s">
+      <c r="R39" s="125" t="s">
         <v>26</v>
       </c>
       <c r="U39" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="51" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="180" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="61"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="51" t="s">
-        <v>123</v>
-      </c>
+      <c r="K40" s="51"/>
       <c r="P40" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R40" s="137" t="s">
+      <c r="R40" s="125" t="s">
         <v>27</v>
       </c>
       <c r="U40" s="20">
@@ -3567,23 +3692,27 @@
       </c>
     </row>
     <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="176"/>
-      <c r="F41" s="128" t="s">
+      <c r="C41" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="163"/>
+      <c r="F41" s="116" t="s">
         <v>24</v>
       </c>
+      <c r="G41" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="51"/>
       <c r="P41" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="125" t="s">
         <v>18</v>
       </c>
       <c r="U41" s="21" t="s">
@@ -3591,46 +3720,54 @@
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="171" t="s">
+      <c r="B42" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="176"/>
-      <c r="F42" s="126" t="s">
-        <v>125</v>
-      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="163"/>
+      <c r="F42" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="51"/>
       <c r="P42" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="R42" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="R42" s="125" t="s">
         <v>19</v>
       </c>
       <c r="U42" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="127">
+      <c r="C43" s="67"/>
+      <c r="D43" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="115">
         <v>0.5</v>
       </c>
-      <c r="G43" s="61"/>
+      <c r="G43" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="61"/>
+      <c r="K43" s="51"/>
       <c r="P43" s="41">
         <v>0.5</v>
       </c>
-      <c r="R43" s="137" t="s">
+      <c r="R43" s="125" t="s">
         <v>20</v>
       </c>
       <c r="U43" s="5">
@@ -3638,51 +3775,59 @@
       </c>
     </row>
     <row r="44" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="176"/>
-      <c r="F44" s="126" t="s">
-        <v>121</v>
-      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="163"/>
+      <c r="F44" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="51"/>
       <c r="P44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="R44" s="137" t="s">
+      <c r="R44" s="125" t="s">
         <v>44</v>
       </c>
       <c r="U44" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="61"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="51" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="171" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="51" t="s">
-        <v>123</v>
-      </c>
+      <c r="K45" s="51"/>
       <c r="P45" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q45" s="34"/>
-      <c r="R45" s="137" t="s">
+      <c r="R45" s="125" t="s">
         <v>45</v>
       </c>
       <c r="U45" s="20">
@@ -3690,23 +3835,27 @@
       </c>
     </row>
     <row r="46" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="183"/>
-      <c r="F46" s="125" t="s">
+      <c r="C46" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="170"/>
+      <c r="F46" s="113" t="s">
         <v>15</v>
       </c>
+      <c r="G46" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="51"/>
       <c r="P46" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R46" s="137" t="s">
+      <c r="R46" s="125" t="s">
         <v>21</v>
       </c>
       <c r="U46" s="21" t="s">
@@ -3714,24 +3863,26 @@
       </c>
     </row>
     <row r="47" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="130">
+      <c r="C47" s="66"/>
+      <c r="D47" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="118">
         <v>0.3</v>
       </c>
-      <c r="G47" s="61"/>
+      <c r="G47" s="118">
+        <v>0.3</v>
+      </c>
       <c r="P47" s="39">
         <v>0.3</v>
       </c>
-      <c r="R47" s="137" t="s">
+      <c r="R47" s="125" t="s">
         <v>22</v>
       </c>
       <c r="U47" s="8">
@@ -3739,23 +3890,26 @@
       </c>
     </row>
     <row r="48" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="79" t="s">
-        <v>130</v>
+      <c r="C48" s="67" t="s">
+        <v>128</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="181"/>
-      <c r="F48" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="168"/>
+      <c r="F48" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="116" t="s">
         <v>15</v>
       </c>
       <c r="P48" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="137" t="s">
+      <c r="R48" s="125" t="s">
         <v>23</v>
       </c>
       <c r="U48" s="29" t="s">
@@ -3763,24 +3917,26 @@
       </c>
     </row>
     <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="171" t="s">
+      <c r="B49" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="131">
+      <c r="C49" s="67"/>
+      <c r="D49" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="119">
         <v>0.3</v>
       </c>
-      <c r="G49" s="61"/>
+      <c r="G49" s="119">
+        <v>0.3</v>
+      </c>
       <c r="P49" s="39">
         <v>0.3</v>
       </c>
-      <c r="R49" s="137" t="s">
+      <c r="R49" s="125" t="s">
         <v>25</v>
       </c>
       <c r="U49" s="27">
@@ -3788,20 +3944,20 @@
       </c>
     </row>
     <row r="50" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="113"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="61"/>
+      <c r="C50" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="101"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
       <c r="P50" s="38">
         <v>0.24</v>
       </c>
-      <c r="R50" s="112" t="s">
+      <c r="R50" s="100" t="s">
         <v>28</v>
       </c>
       <c r="U50" s="16">
@@ -3809,26 +3965,28 @@
       </c>
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="171" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="133">
+      <c r="B51" s="158" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="121">
         <v>0.2</v>
       </c>
-      <c r="G51" s="61"/>
+      <c r="G51" s="121">
+        <v>0.2</v>
+      </c>
       <c r="P51" s="38">
         <v>0.18</v>
       </c>
-      <c r="R51" s="137" t="s">
+      <c r="R51" s="125" t="s">
         <v>53</v>
       </c>
       <c r="U51" s="16">
@@ -3836,24 +3994,26 @@
       </c>
     </row>
     <row r="52" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="171" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="130">
+      <c r="B52" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="118">
         <v>0.4</v>
       </c>
-      <c r="G52" s="61"/>
+      <c r="G52" s="118">
+        <v>0.4</v>
+      </c>
       <c r="P52" s="40">
         <v>0.4</v>
       </c>
-      <c r="R52" s="137" t="s">
+      <c r="R52" s="125" t="s">
         <v>54</v>
       </c>
       <c r="U52" s="8">
@@ -3861,26 +4021,28 @@
       </c>
     </row>
     <row r="53" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="133">
+      <c r="B53" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="121">
         <v>0.3</v>
       </c>
-      <c r="G53" s="61"/>
+      <c r="G53" s="121">
+        <v>0.3</v>
+      </c>
       <c r="P53" s="38">
         <v>0.24</v>
       </c>
-      <c r="R53" s="137" t="s">
+      <c r="R53" s="125" t="s">
         <v>70</v>
       </c>
       <c r="U53" s="16">
@@ -3888,24 +4050,26 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="171" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="127">
+      <c r="B54" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="115">
         <v>0.4</v>
       </c>
-      <c r="G54" s="61"/>
+      <c r="G54" s="115">
+        <v>0.4</v>
+      </c>
       <c r="P54" s="41">
         <v>0.35</v>
       </c>
-      <c r="R54" s="137" t="s">
+      <c r="R54" s="125" t="s">
         <v>72</v>
       </c>
       <c r="U54" s="5">
@@ -3913,24 +4077,26 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="171" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="130">
+      <c r="B55" s="158" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="118">
         <v>1</v>
       </c>
-      <c r="G55" s="61"/>
+      <c r="G55" s="118">
+        <v>1</v>
+      </c>
       <c r="P55" s="39">
         <v>1</v>
       </c>
-      <c r="R55" s="137" t="s">
+      <c r="R55" s="125" t="s">
         <v>73</v>
       </c>
       <c r="U55" s="8">
@@ -3938,26 +4104,28 @@
       </c>
     </row>
     <row r="56" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="171" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="133">
+      <c r="B56" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="121">
         <v>2</v>
       </c>
-      <c r="G56" s="61"/>
+      <c r="G56" s="121">
+        <v>2</v>
+      </c>
       <c r="P56" s="48">
         <v>2.5</v>
       </c>
-      <c r="R56" s="137" t="s">
+      <c r="R56" s="125" t="s">
         <v>74</v>
       </c>
       <c r="U56" s="16">
@@ -3965,24 +4133,26 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97" t="s">
+      <c r="B57" s="158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="84"/>
+      <c r="D57" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="127">
+      <c r="E57" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="115">
         <v>1</v>
       </c>
-      <c r="G57" s="61"/>
+      <c r="G57" s="115">
+        <v>1</v>
+      </c>
       <c r="P57" s="41">
         <v>1.2</v>
       </c>
-      <c r="R57" s="137" t="s">
+      <c r="R57" s="125" t="s">
         <v>75</v>
       </c>
       <c r="U57" s="5">
@@ -3990,24 +4160,26 @@
       </c>
     </row>
     <row r="58" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="171" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="127">
+      <c r="B58" s="158" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="84"/>
+      <c r="D58" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="115">
         <v>3</v>
       </c>
-      <c r="G58" s="61"/>
+      <c r="G58" s="115">
+        <v>3</v>
+      </c>
       <c r="P58" s="41">
         <v>3</v>
       </c>
-      <c r="R58" s="137" t="s">
+      <c r="R58" s="125" t="s">
         <v>76</v>
       </c>
       <c r="U58" s="5">
@@ -4015,24 +4187,26 @@
       </c>
     </row>
     <row r="59" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="127">
+      <c r="B59" s="158" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="84"/>
+      <c r="D59" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="115">
         <v>6</v>
       </c>
-      <c r="G59" s="61"/>
+      <c r="G59" s="115">
+        <v>6</v>
+      </c>
       <c r="P59" s="41">
         <v>6</v>
       </c>
-      <c r="R59" s="137" t="s">
+      <c r="R59" s="125" t="s">
         <v>77</v>
       </c>
       <c r="U59" s="5">
@@ -4040,24 +4214,26 @@
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="88"/>
-      <c r="D60" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="130">
+      <c r="B60" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="118">
         <v>0.2</v>
       </c>
-      <c r="G60" s="61"/>
+      <c r="G60" s="118">
+        <v>0.2</v>
+      </c>
       <c r="P60" s="39">
         <v>0.2</v>
       </c>
-      <c r="R60" s="137" t="s">
+      <c r="R60" s="125" t="s">
         <v>78</v>
       </c>
       <c r="U60" s="8">
@@ -4065,1004 +4241,1159 @@
       </c>
     </row>
     <row r="61" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="113"/>
-      <c r="E61" s="185"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="98"/>
+      <c r="C61" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="101"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
       <c r="H61" s="51"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="98"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="112" t="s">
+      <c r="R61" s="100" t="s">
         <v>15</v>
       </c>
       <c r="S61" s="1"/>
       <c r="U61" s="22"/>
     </row>
     <row r="62" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62" s="149">
+      <c r="B62" s="158" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="137">
         <v>0.24</v>
       </c>
-      <c r="G62" s="98"/>
+      <c r="G62" s="137">
+        <v>0.24</v>
+      </c>
       <c r="H62" s="51"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="138" t="s">
+      <c r="R62" s="126" t="s">
         <v>70</v>
       </c>
       <c r="S62" s="1"/>
       <c r="U62" s="22"/>
     </row>
     <row r="63" spans="2:21" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="171" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="110" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="150"/>
-      <c r="F63" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="98"/>
+      <c r="B63" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="138"/>
+      <c r="F63" s="139" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="139" t="s">
+        <v>159</v>
+      </c>
       <c r="H63" s="51"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="138" t="s">
+      <c r="R63" s="126" t="s">
         <v>71</v>
       </c>
       <c r="S63" s="1"/>
       <c r="U63" s="22"/>
     </row>
     <row r="64" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="101"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="I64" s="86"/>
+      <c r="R64" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="U64" s="22"/>
+    </row>
+    <row r="65" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="G65" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="I65" s="86"/>
+      <c r="R65" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="U65" s="22"/>
+    </row>
+    <row r="66" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="118">
+        <v>0.35</v>
+      </c>
+      <c r="G66" s="118">
+        <v>0.35</v>
+      </c>
+      <c r="I66" s="86"/>
+      <c r="J66" s="87"/>
+      <c r="R66" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="U66" s="22"/>
+    </row>
+    <row r="67" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="121">
+        <v>4</v>
+      </c>
+      <c r="G67" s="121">
+        <v>4</v>
+      </c>
+      <c r="I67" s="86"/>
+      <c r="R67" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="U67" s="22"/>
+    </row>
+    <row r="68" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="80"/>
+      <c r="D68" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="115">
+        <v>4</v>
+      </c>
+      <c r="G68" s="115">
+        <v>4</v>
+      </c>
+      <c r="I68" s="86"/>
+      <c r="R68" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="U68" s="22"/>
+    </row>
+    <row r="69" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="80"/>
+      <c r="D69" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="115">
+        <v>1</v>
+      </c>
+      <c r="G69" s="115">
+        <v>1</v>
+      </c>
+      <c r="I69" s="86"/>
+      <c r="R69" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="U69" s="22"/>
+    </row>
+    <row r="70" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="82"/>
+      <c r="D70" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="118">
+        <v>1</v>
+      </c>
+      <c r="G70" s="118">
+        <v>1</v>
+      </c>
+      <c r="I70" s="86"/>
+      <c r="R70" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" s="22"/>
+    </row>
+    <row r="71" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="121">
+        <v>0.35</v>
+      </c>
+      <c r="G71" s="121">
+        <v>0.35</v>
+      </c>
+      <c r="I71" s="86"/>
+      <c r="R71" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="U71" s="22"/>
+    </row>
+    <row r="72" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="84"/>
+      <c r="D72" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G72" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I72" s="86"/>
+      <c r="R72" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="U72" s="22"/>
+    </row>
+    <row r="73" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="G73" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="I73" s="86"/>
+      <c r="R73" s="127" t="s">
+        <v>57</v>
+      </c>
+      <c r="U73" s="22"/>
+    </row>
+    <row r="74" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="I74" s="86"/>
+      <c r="R74" s="127" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" s="22"/>
+    </row>
+    <row r="75" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="84"/>
+      <c r="D75" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G75" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I75" s="86"/>
+      <c r="R75" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="U75" s="22"/>
+    </row>
+    <row r="76" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="84"/>
+      <c r="D76" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="G76" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="I76" s="86"/>
+      <c r="R76" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="U76" s="22"/>
+    </row>
+    <row r="77" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="118">
+        <v>0.25</v>
+      </c>
+      <c r="G77" s="118">
+        <v>0.25</v>
+      </c>
+      <c r="I77" s="86"/>
+      <c r="R77" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="U77" s="22"/>
+    </row>
+    <row r="78" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="155">
+        <v>0.35</v>
+      </c>
+      <c r="G78" s="155">
+        <v>0.35</v>
+      </c>
+      <c r="I78" s="86"/>
+      <c r="R78" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="U78" s="22"/>
+    </row>
+    <row r="79" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="80"/>
+      <c r="D79" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G79" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I79" s="86"/>
+      <c r="R79" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="U79" s="22"/>
+    </row>
+    <row r="80" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="G80" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="I80" s="86"/>
+      <c r="R80" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="U80" s="22"/>
+    </row>
+    <row r="81" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="80"/>
+      <c r="D81" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="G81" s="115">
+        <v>0.25</v>
+      </c>
+      <c r="I81" s="86"/>
+      <c r="R81" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="158" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="80"/>
+      <c r="D82" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G82" s="115">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I82" s="86"/>
+      <c r="R82" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="U82" s="2"/>
+    </row>
+    <row r="83" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="158" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="80"/>
+      <c r="D83" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="G83" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="I83" s="86"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="88"/>
+      <c r="Q83" s="88"/>
+      <c r="R83" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="U83" s="2"/>
+    </row>
+    <row r="84" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="158" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="82"/>
+      <c r="D84" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="119">
+        <v>0.25</v>
+      </c>
+      <c r="G84" s="119">
+        <v>0.25</v>
+      </c>
+      <c r="I84" s="86"/>
+      <c r="R84" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="158" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" s="137">
+        <v>0.35</v>
+      </c>
+      <c r="G85" s="137">
+        <v>0.35</v>
+      </c>
+      <c r="I85" s="86"/>
+      <c r="R85" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="101"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="I86" s="86"/>
+      <c r="R86" s="100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="158" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="G87" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="I87" s="86"/>
+      <c r="R87" s="125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="118">
+        <v>0.4</v>
+      </c>
+      <c r="G88" s="118">
+        <v>0.4</v>
+      </c>
+      <c r="I88" s="86"/>
+      <c r="R88" s="126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="88"/>
+      <c r="R89" s="129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="158" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="115">
+        <v>1.5</v>
+      </c>
+      <c r="G90" s="115">
+        <v>1.5</v>
+      </c>
+      <c r="I90" s="88"/>
+      <c r="R90" s="130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="158" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="80"/>
+      <c r="D91" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="115">
+        <v>10</v>
+      </c>
+      <c r="G91" s="115">
+        <v>10</v>
+      </c>
+      <c r="I91" s="88"/>
+      <c r="R91" s="127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="158" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" s="115">
+        <v>1</v>
+      </c>
+      <c r="G92" s="115">
+        <v>1</v>
+      </c>
+      <c r="I92" s="88"/>
+      <c r="R92" s="130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="82"/>
+      <c r="D93" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="141">
+        <v>1</v>
+      </c>
+      <c r="G93" s="141">
+        <v>1</v>
+      </c>
+      <c r="I93" s="88"/>
+      <c r="R93" s="126" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="156" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="113"/>
-      <c r="E64" s="185"/>
-      <c r="F64" s="132"/>
-      <c r="I64" s="98"/>
-      <c r="R64" s="112" t="s">
+      <c r="C94" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="101"/>
+      <c r="E94" s="172"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="120"/>
+      <c r="R94" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="U64" s="22"/>
-    </row>
-    <row r="65" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="171" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="133">
+    </row>
+    <row r="95" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="158" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" s="121">
         <v>0.18</v>
       </c>
-      <c r="I65" s="98"/>
-      <c r="R65" s="137" t="s">
+      <c r="G95" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="R95" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="U65" s="22"/>
-    </row>
-    <row r="66" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="171" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="130">
-        <v>0.35</v>
-      </c>
-      <c r="I66" s="98"/>
-      <c r="J66" s="99"/>
-      <c r="R66" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="U66" s="22"/>
-    </row>
-    <row r="67" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="171" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="133">
-        <v>4</v>
-      </c>
-      <c r="I67" s="98"/>
-      <c r="R67" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="U67" s="22"/>
-    </row>
-    <row r="68" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93" t="s">
+    </row>
+    <row r="96" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="121">
+        <v>0.24</v>
+      </c>
+      <c r="G96" s="121">
+        <v>0.24</v>
+      </c>
+      <c r="R96" s="128" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="145"/>
+      <c r="F97" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="R97" s="129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="82"/>
+      <c r="D98" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E98" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="G98" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="R98" s="126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="G99" s="121">
+        <v>1.2</v>
+      </c>
+      <c r="R99" s="131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="84"/>
+      <c r="D100" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" s="115">
+        <v>5</v>
+      </c>
+      <c r="G100" s="115">
+        <v>5</v>
+      </c>
+      <c r="R100" s="130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="84"/>
+      <c r="D101" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="119">
+        <v>3</v>
+      </c>
+      <c r="G101" s="119">
+        <v>3</v>
+      </c>
+      <c r="R101" s="130" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="127">
-        <v>4</v>
-      </c>
-      <c r="I68" s="98"/>
-      <c r="R68" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="U68" s="22"/>
-    </row>
-    <row r="69" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="92"/>
-      <c r="D69" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="127">
-        <v>1</v>
-      </c>
-      <c r="I69" s="98"/>
-      <c r="R69" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="U69" s="22"/>
-    </row>
-    <row r="70" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="171" t="s">
-        <v>212</v>
-      </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="95" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="130">
-        <v>1</v>
-      </c>
-      <c r="I70" s="98"/>
-      <c r="R70" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="U70" s="22"/>
-    </row>
-    <row r="71" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="171" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="133">
-        <v>0.35</v>
-      </c>
-      <c r="I71" s="98"/>
-      <c r="R71" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="U71" s="22"/>
-    </row>
-    <row r="72" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="171" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="155" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="164" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="127">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I72" s="98"/>
-      <c r="R72" s="142" t="s">
-        <v>56</v>
-      </c>
-      <c r="U72" s="22"/>
-    </row>
-    <row r="73" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="171" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="127">
-        <v>0.75</v>
-      </c>
-      <c r="I73" s="98"/>
-      <c r="R73" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="U73" s="22"/>
-    </row>
-    <row r="74" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="171" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="E74" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" s="127">
-        <v>0.25</v>
-      </c>
-      <c r="I74" s="98"/>
-      <c r="R74" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="U74" s="22"/>
-    </row>
-    <row r="75" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="171" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="164" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="127">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I75" s="98"/>
-      <c r="R75" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="U75" s="22"/>
-    </row>
-    <row r="76" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="171" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76" s="127">
-        <v>0.75</v>
-      </c>
-      <c r="I76" s="98"/>
-      <c r="R76" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="U76" s="22"/>
-    </row>
-    <row r="77" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="171" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="130">
-        <v>0.25</v>
-      </c>
-      <c r="I77" s="98"/>
-      <c r="R77" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="U77" s="22"/>
-    </row>
-    <row r="78" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="171" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="168">
-        <v>0.35</v>
-      </c>
-      <c r="I78" s="98"/>
-      <c r="R78" s="140" t="s">
-        <v>62</v>
-      </c>
-      <c r="U78" s="22"/>
-    </row>
-    <row r="79" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="171" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" s="92"/>
-      <c r="D79" s="161" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="127">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I79" s="98"/>
-      <c r="R79" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="U79" s="22"/>
-    </row>
-    <row r="80" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="171" t="s">
-        <v>222</v>
-      </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F80" s="127">
-        <v>0.75</v>
-      </c>
-      <c r="I80" s="98"/>
-      <c r="R80" s="139" t="s">
-        <v>64</v>
-      </c>
-      <c r="U80" s="22"/>
-    </row>
-    <row r="81" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="171" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="E81" s="167" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="127">
-        <v>0.25</v>
-      </c>
-      <c r="I81" s="98"/>
-      <c r="R81" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="U81" s="2"/>
-    </row>
-    <row r="82" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="171" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" s="92"/>
-      <c r="D82" s="161" t="s">
-        <v>183</v>
-      </c>
-      <c r="E82" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="F82" s="127">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I82" s="98"/>
-      <c r="R82" s="139" t="s">
-        <v>66</v>
-      </c>
-      <c r="U82" s="2"/>
-    </row>
-    <row r="83" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="171" t="s">
-        <v>225</v>
-      </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="127">
-        <v>0.75</v>
-      </c>
-      <c r="I83" s="98"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="100"/>
-      <c r="Q83" s="100"/>
-      <c r="R83" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="U83" s="2"/>
-    </row>
-    <row r="84" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="171" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="94"/>
-      <c r="D84" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="131">
-        <v>0.25</v>
-      </c>
-      <c r="I84" s="98"/>
-      <c r="R84" s="138" t="s">
-        <v>68</v>
-      </c>
-      <c r="U84" s="2"/>
-    </row>
-    <row r="85" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="171" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="149">
-        <v>0.35</v>
-      </c>
-      <c r="I85" s="98"/>
-      <c r="R85" s="138" t="s">
-        <v>69</v>
-      </c>
-      <c r="U85" s="2"/>
-    </row>
-    <row r="86" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="172" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" s="113"/>
-      <c r="E86" s="185"/>
-      <c r="F86" s="132"/>
-      <c r="I86" s="98"/>
-      <c r="R86" s="112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="171" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="133">
-        <v>0.18</v>
-      </c>
-      <c r="I87" s="98"/>
-      <c r="R87" s="137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="171" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="F88" s="130">
-        <v>0.4</v>
-      </c>
-      <c r="I88" s="98"/>
-      <c r="R88" s="138" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="C89" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="100"/>
-      <c r="R89" s="141" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="C90" s="92"/>
-      <c r="D90" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="E90" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F90" s="127">
-        <v>1.5</v>
-      </c>
-      <c r="I90" s="100"/>
-      <c r="R90" s="142" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="171" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="E91" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" s="127">
-        <v>10</v>
-      </c>
-      <c r="I91" s="100"/>
-      <c r="R91" s="139" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="171" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="92"/>
-      <c r="D92" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F92" s="127">
-        <v>1</v>
-      </c>
-      <c r="I92" s="100"/>
-      <c r="R92" s="142" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="171" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="F93" s="154">
-        <v>1</v>
-      </c>
-      <c r="I93" s="100"/>
-      <c r="R93" s="138" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="172" t="s">
+      <c r="E102" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="121">
+        <v>300</v>
+      </c>
+      <c r="G102" s="121">
+        <v>300</v>
+      </c>
+      <c r="R102" s="128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="158" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="82"/>
+      <c r="D103" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="112" t="s">
+      <c r="E103" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="F103" s="115">
+        <v>30</v>
+      </c>
+      <c r="G103" s="115">
+        <v>30</v>
+      </c>
+      <c r="R103" s="132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" s="121">
+        <v>500</v>
+      </c>
+      <c r="G104" s="121">
+        <v>500</v>
+      </c>
+      <c r="R104" s="128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="158" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="F105" s="115">
+        <v>40</v>
+      </c>
+      <c r="G105" s="115">
+        <v>40</v>
+      </c>
+      <c r="R105" s="132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="158" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="185"/>
-      <c r="F94" s="132"/>
-      <c r="R94" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="171" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="E95" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="133">
-        <v>0.18</v>
-      </c>
-      <c r="R95" s="137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="171" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="E96" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="133">
-        <v>0.24</v>
-      </c>
-      <c r="R96" s="140" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" s="158"/>
-      <c r="F97" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="R97" s="141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="171" t="s">
-        <v>238</v>
-      </c>
-      <c r="C98" s="94"/>
-      <c r="D98" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="E98" s="159" t="s">
-        <v>100</v>
-      </c>
-      <c r="F98" s="130">
-        <v>0.1</v>
-      </c>
-      <c r="G98" s="152" t="s">
+      <c r="D106" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="R98" s="138" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="171" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F99" s="133">
-        <v>1.2</v>
-      </c>
-      <c r="R99" s="143" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="171" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="127">
-        <v>5</v>
-      </c>
-      <c r="R100" s="142" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="171" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" s="131">
-        <v>3</v>
-      </c>
-      <c r="R101" s="142" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="171" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" s="90" t="s">
+      <c r="F106" s="121">
+        <v>16</v>
+      </c>
+      <c r="G106" s="121">
+        <v>16</v>
+      </c>
+      <c r="R106" s="133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="158" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="D102" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="F102" s="133">
-        <v>300</v>
-      </c>
-      <c r="R102" s="140" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="171" t="s">
-        <v>243</v>
-      </c>
-      <c r="C103" s="94"/>
-      <c r="D103" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="159" t="s">
+      <c r="D107" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="F103" s="127">
-        <v>30</v>
-      </c>
-      <c r="R103" s="144" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="171" t="s">
+      <c r="E107" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="F107" s="121">
+        <v>25</v>
+      </c>
+      <c r="G107" s="121">
+        <v>25</v>
+      </c>
+      <c r="R107" s="128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="C104" s="86" t="s">
+      <c r="C108" s="76"/>
+      <c r="D108" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="D104" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="F104" s="133">
-        <v>500</v>
-      </c>
-      <c r="R104" s="140" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="105" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="F105" s="127">
-        <v>40</v>
-      </c>
-      <c r="R105" s="144" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="171" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="F106" s="133">
-        <v>16</v>
-      </c>
-      <c r="R106" s="145" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="C107" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E107" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="F107" s="133">
+      <c r="E108" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="F108" s="118">
         <v>25</v>
       </c>
-      <c r="R107" s="140" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="171" t="s">
-        <v>248</v>
-      </c>
-      <c r="C108" s="88"/>
-      <c r="D108" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="F108" s="130">
+      <c r="G108" s="118">
         <v>25</v>
       </c>
-      <c r="R108" s="144" t="s">
+      <c r="R108" s="132" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F51:F60">
-    <cfRule type="expression" dxfId="4" priority="64">
+    <cfRule type="expression" dxfId="9" priority="69">
       <formula>$F$4&lt;&gt;"płytowo-belkowy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$F$4&lt;&gt;"zespolony (belki T)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F85">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$F$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F93">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$F$4&lt;&gt;"płytowy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F108">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$F$4&lt;&gt;"zespolony (stal-beton)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G60">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$F$4&lt;&gt;"płytowo-belkowy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G63">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$F$4&lt;&gt;"zespolony (belki T)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65:F85">
+  <conditionalFormatting sqref="G65:G85">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F93">
+  <conditionalFormatting sqref="G87:G93">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F$4&lt;&gt;"płytowy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F108">
+  <conditionalFormatting sqref="G95:G108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F$4&lt;&gt;"zespolony (stal-beton)"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97 P29 F89 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F41 F48 F35:F36 F29 F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97:G97 P29 F89:G89 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F41:G41 F48:G48 F35:G36 F29:G29 F46:G46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"T,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:G63" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"T12,T15,T18,T21,T24,T27"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 F10:I10 U10 U14 F14:I14 H2:H3 P10:Q10 P14:Q14 S14" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10 F14:G14 U10 U14 S14 H2:H3 P10:Q10 P14:Q14 F10:G10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"od, do"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5 U4:U5 F4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P5 U4:U5 F4:G4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"płytowo-belkowy,zespolony (belki T),skrzynkowy (kablobetonowy),płytowy,zespolony (stal-beton)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P33 P27 U33 U27 F27 F33" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P33 P27 U33 U27 F27:G27 F33:G33" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"2,2,5,3,3,5,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28 P34" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -5077,13 +5408,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P39 P44" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"B,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28 U34 F34 F28" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28 U34 F34:G34 F28:G28" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"0.50,0.55,0.60,0.65,0.70,0.75,0.80,0.85,0.90"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F42 F37" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F42:G42 F37:G37" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"bariera typowa,bariera linowa,bariera z poręczą 1.1,bariera z poręczą 1.2,bariera z poręczą 1.3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F44 F39" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F44:G44 F39:G39" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"balustrada,balustrada z osłoną przeciwporażeniową,ekran akustyczny,ekran przeciwolśnieniowy"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40 U45" xr:uid="{00000000-0002-0000-0000-00000C000000}">

--- a/_testy/Dane.xlsx
+++ b/_testy/Dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\_testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B313593-BF3F-41EE-AB41-B84EBB739119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DD4DA-D1BC-4829-A3F0-F17526716BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_Dane podstawowe" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="257">
   <si>
     <t>PL - szer</t>
   </si>
@@ -790,16 +790,13 @@
     <t>02</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Zabrze</t>
-  </si>
-  <si>
-    <t>WD-04</t>
+    <t>zespolony (belki T)</t>
+  </si>
+  <si>
+    <t>balustrada z osłoną przeciwporażeniową</t>
+  </si>
+  <si>
+    <t>T21</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2119,507 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -2548,10 +3045,10 @@
   <dimension ref="B1:U108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +3078,7 @@
       <c r="D1" s="122"/>
       <c r="E1" s="1"/>
       <c r="F1" s="122"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="122"/>
       <c r="H1" s="122"/>
       <c r="I1" s="1"/>
       <c r="J1" s="122"/>
@@ -2638,7 +3135,7 @@
         <v>93</v>
       </c>
       <c r="G3" s="103" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -2671,7 +3168,7 @@
         <v>120</v>
       </c>
       <c r="G4" s="104" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>120</v>
@@ -2771,7 +3268,7 @@
         <v>248</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J8" s="61"/>
       <c r="P8" s="35">
@@ -2800,10 +3297,10 @@
         <v>101</v>
       </c>
       <c r="F9" s="103">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="103">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="61"/>
       <c r="P9" s="36">
@@ -2857,7 +3354,7 @@
         <v>249</v>
       </c>
       <c r="G11" s="106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J11" s="61"/>
       <c r="P11" s="37" t="s">
@@ -2889,7 +3386,7 @@
         <v>248</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J12" s="61"/>
       <c r="P12" s="35">
@@ -2975,7 +3472,7 @@
         <v>247</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="J15" s="61"/>
       <c r="P15" s="37" t="s">
@@ -3007,7 +3504,7 @@
         <v>3.5</v>
       </c>
       <c r="G16" s="105">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P16" s="38">
         <v>0</v>
@@ -3119,10 +3616,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P20" s="38">
         <v>3</v>
@@ -3146,10 +3643,10 @@
         <v>101</v>
       </c>
       <c r="F21" s="109">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="G21" s="109">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="P21" s="39">
         <v>-4</v>
@@ -3639,10 +4136,10 @@
       </c>
       <c r="E39" s="166"/>
       <c r="F39" s="114" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="G39" s="114" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="H39" s="61" t="s">
         <v>155</v>
@@ -3846,10 +4343,10 @@
       </c>
       <c r="E46" s="170"/>
       <c r="F46" s="113" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K46" s="51"/>
       <c r="P46" s="47" t="s">
@@ -4307,7 +4804,7 @@
         <v>159</v>
       </c>
       <c r="G63" s="139" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="86"/>
@@ -5331,57 +5828,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F51:F60">
-    <cfRule type="expression" dxfId="9" priority="69">
-      <formula>$F$4&lt;&gt;"płytowo-belkowy"</formula>
+    <cfRule type="expression" dxfId="20" priority="89">
+      <formula>F$4&lt;&gt;"płytowo-belkowy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$F$4&lt;&gt;"zespolony (belki T)"</formula>
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>F$4&lt;&gt;"zespolony (belki T)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F85">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$F$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>F$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:F93">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$F$4&lt;&gt;"płytowy"</formula>
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>F$4&lt;&gt;"płytowy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F108">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$F$4&lt;&gt;"zespolony (stal-beton)"</formula>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>F$4&lt;&gt;"zespolony (stal-beton)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G60">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$F$4&lt;&gt;"płytowo-belkowy"</formula>
+      <formula>G$4&lt;&gt;"płytowo-belkowy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:G63">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$F$4&lt;&gt;"zespolony (belki T)"</formula>
+      <formula>G$4&lt;&gt;"zespolony (belki T)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G85">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$F$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
+      <formula>G$4&lt;&gt;"skrzynkowy (kablobetonowy)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G93">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F$4&lt;&gt;"płytowy"</formula>
+      <formula>G$4&lt;&gt;"płytowy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G108">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F$4&lt;&gt;"zespolony (stal-beton)"</formula>
+      <formula>G$4&lt;&gt;"zespolony (stal-beton)"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97:G97 P29 F89:G89 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F41:G41 F48:G48 F35:G36 F29:G29 F46:G46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89:G89 P29 F41:G41 P48 P46 U41 U29 U48 P35:P36 P41 U35:U36 U46 F48:G48 F29:G29 F97:G97 F46:G46 F35:G36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"T,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:G63" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -5411,10 +5908,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28 U34 F34:G34 F28:G28" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"0.50,0.55,0.60,0.65,0.70,0.75,0.80,0.85,0.90"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F42:G42 F37:G37" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37 U42 F37:G37 F42:G42" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"bariera typowa,bariera linowa,bariera z poręczą 1.1,bariera z poręczą 1.2,bariera z poręczą 1.3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F44:G44 F39:G39" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U39 U44 F39:G39 F44:G44" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"balustrada,balustrada z osłoną przeciwporażeniową,ekran akustyczny,ekran przeciwolśnieniowy"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U40 U45" xr:uid="{00000000-0002-0000-0000-00000C000000}">
